--- a/input/SKU wise - Machine wise capacities.xlsx
+++ b/input/SKU wise - Machine wise capacities.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="788" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="623" uniqueCount="211">
   <si>
     <t>KD004</t>
   </si>
@@ -740,7 +740,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -835,11 +835,48 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -903,6 +940,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1211,8 +1257,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I207"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="A201" sqref="A201:I202"/>
+    <sheetView tabSelected="1" topLeftCell="C27" workbookViewId="0">
+      <selection activeCell="C47" sqref="C47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1276,7 +1322,7 @@
       </c>
     </row>
     <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="22" t="s">
         <v>82</v>
       </c>
       <c r="B7" s="9" t="s">
@@ -1308,9 +1354,7 @@
       </c>
     </row>
     <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="3" t="s">
-        <v>82</v>
-      </c>
+      <c r="A8" s="23"/>
       <c r="B8" s="9" t="s">
         <v>185</v>
       </c>
@@ -1340,9 +1384,7 @@
       </c>
     </row>
     <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="3" t="s">
-        <v>82</v>
-      </c>
+      <c r="A9" s="23"/>
       <c r="B9" s="9" t="s">
         <v>185</v>
       </c>
@@ -1372,9 +1414,7 @@
       </c>
     </row>
     <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="3" t="s">
-        <v>82</v>
-      </c>
+      <c r="A10" s="23"/>
       <c r="B10" s="9" t="s">
         <v>185</v>
       </c>
@@ -1404,9 +1444,7 @@
       </c>
     </row>
     <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="3" t="s">
-        <v>82</v>
-      </c>
+      <c r="A11" s="23"/>
       <c r="B11" s="9" t="s">
         <v>185</v>
       </c>
@@ -1436,9 +1474,7 @@
       </c>
     </row>
     <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="3" t="s">
-        <v>82</v>
-      </c>
+      <c r="A12" s="23"/>
       <c r="B12" s="9" t="s">
         <v>185</v>
       </c>
@@ -1468,9 +1504,7 @@
       </c>
     </row>
     <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="3" t="s">
-        <v>82</v>
-      </c>
+      <c r="A13" s="23"/>
       <c r="B13" s="9" t="s">
         <v>185</v>
       </c>
@@ -1500,9 +1534,7 @@
       </c>
     </row>
     <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="3" t="s">
-        <v>82</v>
-      </c>
+      <c r="A14" s="23"/>
       <c r="B14" s="9" t="s">
         <v>185</v>
       </c>
@@ -1532,9 +1564,7 @@
       </c>
     </row>
     <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="3" t="s">
-        <v>82</v>
-      </c>
+      <c r="A15" s="23"/>
       <c r="B15" s="9" t="s">
         <v>185</v>
       </c>
@@ -1564,9 +1594,7 @@
       </c>
     </row>
     <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="3" t="s">
-        <v>82</v>
-      </c>
+      <c r="A16" s="23"/>
       <c r="B16" s="9" t="s">
         <v>185</v>
       </c>
@@ -1596,9 +1624,7 @@
       </c>
     </row>
     <row r="17" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="3" t="s">
-        <v>82</v>
-      </c>
+      <c r="A17" s="23"/>
       <c r="B17" s="9" t="s">
         <v>185</v>
       </c>
@@ -1628,9 +1654,7 @@
       </c>
     </row>
     <row r="18" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="3" t="s">
-        <v>82</v>
-      </c>
+      <c r="A18" s="23"/>
       <c r="B18" s="9" t="s">
         <v>185</v>
       </c>
@@ -1660,9 +1684,7 @@
       </c>
     </row>
     <row r="19" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="3" t="s">
-        <v>82</v>
-      </c>
+      <c r="A19" s="23"/>
       <c r="B19" s="9" t="s">
         <v>185</v>
       </c>
@@ -1692,9 +1714,7 @@
       </c>
     </row>
     <row r="20" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="3" t="s">
-        <v>82</v>
-      </c>
+      <c r="A20" s="24"/>
       <c r="B20" s="9" t="s">
         <v>185</v>
       </c>
@@ -1724,7 +1744,7 @@
       </c>
     </row>
     <row r="21" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="3" t="s">
+      <c r="A21" s="22" t="s">
         <v>83</v>
       </c>
       <c r="B21" s="9" t="s">
@@ -1756,9 +1776,7 @@
       </c>
     </row>
     <row r="22" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="3" t="s">
-        <v>83</v>
-      </c>
+      <c r="A22" s="23"/>
       <c r="B22" s="9" t="s">
         <v>186</v>
       </c>
@@ -1788,9 +1806,7 @@
       </c>
     </row>
     <row r="23" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="3" t="s">
-        <v>83</v>
-      </c>
+      <c r="A23" s="23"/>
       <c r="B23" s="9" t="s">
         <v>186</v>
       </c>
@@ -1820,9 +1836,7 @@
       </c>
     </row>
     <row r="24" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="3" t="s">
-        <v>83</v>
-      </c>
+      <c r="A24" s="23"/>
       <c r="B24" s="9" t="s">
         <v>186</v>
       </c>
@@ -1852,9 +1866,7 @@
       </c>
     </row>
     <row r="25" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="3" t="s">
-        <v>83</v>
-      </c>
+      <c r="A25" s="23"/>
       <c r="B25" s="9" t="s">
         <v>186</v>
       </c>
@@ -1884,9 +1896,7 @@
       </c>
     </row>
     <row r="26" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="3" t="s">
-        <v>83</v>
-      </c>
+      <c r="A26" s="23"/>
       <c r="B26" s="9" t="s">
         <v>186</v>
       </c>
@@ -1916,9 +1926,7 @@
       </c>
     </row>
     <row r="27" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="3" t="s">
-        <v>83</v>
-      </c>
+      <c r="A27" s="23"/>
       <c r="B27" s="9" t="s">
         <v>186</v>
       </c>
@@ -1948,9 +1956,7 @@
       </c>
     </row>
     <row r="28" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="3" t="s">
-        <v>83</v>
-      </c>
+      <c r="A28" s="23"/>
       <c r="B28" s="9" t="s">
         <v>186</v>
       </c>
@@ -1980,9 +1986,7 @@
       </c>
     </row>
     <row r="29" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="3" t="s">
-        <v>83</v>
-      </c>
+      <c r="A29" s="24"/>
       <c r="B29" s="9" t="s">
         <v>186</v>
       </c>
@@ -2012,7 +2016,7 @@
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A30" s="3" t="s">
+      <c r="A30" s="22" t="s">
         <v>84</v>
       </c>
       <c r="B30" s="9" t="s">
@@ -2044,9 +2048,7 @@
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A31" s="3" t="s">
-        <v>84</v>
-      </c>
+      <c r="A31" s="23"/>
       <c r="B31" s="9" t="s">
         <v>187</v>
       </c>
@@ -2076,9 +2078,7 @@
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A32" s="3" t="s">
-        <v>84</v>
-      </c>
+      <c r="A32" s="23"/>
       <c r="B32" s="9" t="s">
         <v>187</v>
       </c>
@@ -2108,9 +2108,7 @@
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A33" s="3" t="s">
-        <v>84</v>
-      </c>
+      <c r="A33" s="23"/>
       <c r="B33" s="9" t="s">
         <v>187</v>
       </c>
@@ -2140,9 +2138,7 @@
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A34" s="3" t="s">
-        <v>84</v>
-      </c>
+      <c r="A34" s="23"/>
       <c r="B34" s="9" t="s">
         <v>187</v>
       </c>
@@ -2172,9 +2168,7 @@
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A35" s="3" t="s">
-        <v>84</v>
-      </c>
+      <c r="A35" s="23"/>
       <c r="B35" s="9" t="s">
         <v>187</v>
       </c>
@@ -2204,9 +2198,7 @@
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A36" s="3" t="s">
-        <v>84</v>
-      </c>
+      <c r="A36" s="23"/>
       <c r="B36" s="9" t="s">
         <v>187</v>
       </c>
@@ -2236,9 +2228,7 @@
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A37" s="3" t="s">
-        <v>84</v>
-      </c>
+      <c r="A37" s="23"/>
       <c r="B37" s="9" t="s">
         <v>187</v>
       </c>
@@ -2268,9 +2258,7 @@
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A38" s="3" t="s">
-        <v>84</v>
-      </c>
+      <c r="A38" s="24"/>
       <c r="B38" s="9" t="s">
         <v>187</v>
       </c>
@@ -2300,7 +2288,7 @@
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A39" s="3" t="s">
+      <c r="A39" s="22" t="s">
         <v>85</v>
       </c>
       <c r="B39" s="9" t="s">
@@ -2332,9 +2320,7 @@
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A40" s="3" t="s">
-        <v>85</v>
-      </c>
+      <c r="A40" s="23"/>
       <c r="B40" s="9" t="s">
         <v>188</v>
       </c>
@@ -2364,9 +2350,7 @@
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A41" s="3" t="s">
-        <v>85</v>
-      </c>
+      <c r="A41" s="23"/>
       <c r="B41" s="9" t="s">
         <v>188</v>
       </c>
@@ -2396,9 +2380,7 @@
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A42" s="3" t="s">
-        <v>85</v>
-      </c>
+      <c r="A42" s="23"/>
       <c r="B42" s="9" t="s">
         <v>188</v>
       </c>
@@ -2428,9 +2410,7 @@
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A43" s="3" t="s">
-        <v>85</v>
-      </c>
+      <c r="A43" s="23"/>
       <c r="B43" s="9" t="s">
         <v>188</v>
       </c>
@@ -2460,9 +2440,7 @@
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A44" s="3" t="s">
-        <v>85</v>
-      </c>
+      <c r="A44" s="23"/>
       <c r="B44" s="9" t="s">
         <v>188</v>
       </c>
@@ -2492,9 +2470,7 @@
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A45" s="3" t="s">
-        <v>85</v>
-      </c>
+      <c r="A45" s="23"/>
       <c r="B45" s="9" t="s">
         <v>188</v>
       </c>
@@ -2524,9 +2500,7 @@
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A46" s="3" t="s">
-        <v>85</v>
-      </c>
+      <c r="A46" s="23"/>
       <c r="B46" s="9" t="s">
         <v>188</v>
       </c>
@@ -2556,9 +2530,7 @@
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A47" s="3" t="s">
-        <v>85</v>
-      </c>
+      <c r="A47" s="23"/>
       <c r="B47" s="9" t="s">
         <v>188</v>
       </c>
@@ -2588,9 +2560,7 @@
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A48" s="3" t="s">
-        <v>85</v>
-      </c>
+      <c r="A48" s="23"/>
       <c r="B48" s="9" t="s">
         <v>188</v>
       </c>
@@ -2620,9 +2590,7 @@
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A49" s="3" t="s">
-        <v>85</v>
-      </c>
+      <c r="A49" s="23"/>
       <c r="B49" s="9" t="s">
         <v>188</v>
       </c>
@@ -2652,9 +2620,7 @@
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A50" s="3" t="s">
-        <v>85</v>
-      </c>
+      <c r="A50" s="24"/>
       <c r="B50" s="9" t="s">
         <v>188</v>
       </c>
@@ -2684,7 +2650,7 @@
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A51" s="3" t="s">
+      <c r="A51" s="22" t="s">
         <v>86</v>
       </c>
       <c r="B51" s="9" t="s">
@@ -2716,9 +2682,7 @@
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A52" s="3" t="s">
-        <v>86</v>
-      </c>
+      <c r="A52" s="23"/>
       <c r="B52" s="9" t="s">
         <v>189</v>
       </c>
@@ -2748,9 +2712,7 @@
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A53" s="3" t="s">
-        <v>86</v>
-      </c>
+      <c r="A53" s="23"/>
       <c r="B53" s="9" t="s">
         <v>189</v>
       </c>
@@ -2780,9 +2742,7 @@
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A54" s="3" t="s">
-        <v>86</v>
-      </c>
+      <c r="A54" s="23"/>
       <c r="B54" s="9" t="s">
         <v>189</v>
       </c>
@@ -2812,9 +2772,7 @@
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A55" s="3" t="s">
-        <v>86</v>
-      </c>
+      <c r="A55" s="23"/>
       <c r="B55" s="9" t="s">
         <v>189</v>
       </c>
@@ -2844,9 +2802,7 @@
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A56" s="3" t="s">
-        <v>86</v>
-      </c>
+      <c r="A56" s="23"/>
       <c r="B56" s="9" t="s">
         <v>189</v>
       </c>
@@ -2876,9 +2832,7 @@
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A57" s="3" t="s">
-        <v>86</v>
-      </c>
+      <c r="A57" s="23"/>
       <c r="B57" s="9" t="s">
         <v>189</v>
       </c>
@@ -2908,9 +2862,7 @@
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A58" s="3" t="s">
-        <v>86</v>
-      </c>
+      <c r="A58" s="23"/>
       <c r="B58" s="9" t="s">
         <v>189</v>
       </c>
@@ -2940,9 +2892,7 @@
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A59" s="3" t="s">
-        <v>86</v>
-      </c>
+      <c r="A59" s="23"/>
       <c r="B59" s="9" t="s">
         <v>189</v>
       </c>
@@ -2972,9 +2922,7 @@
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A60" s="3" t="s">
-        <v>86</v>
-      </c>
+      <c r="A60" s="23"/>
       <c r="B60" s="9" t="s">
         <v>189</v>
       </c>
@@ -3004,9 +2952,7 @@
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A61" s="3" t="s">
-        <v>86</v>
-      </c>
+      <c r="A61" s="23"/>
       <c r="B61" s="9" t="s">
         <v>189</v>
       </c>
@@ -3036,9 +2982,7 @@
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A62" s="3" t="s">
-        <v>86</v>
-      </c>
+      <c r="A62" s="24"/>
       <c r="B62" s="9" t="s">
         <v>189</v>
       </c>
@@ -3068,7 +3012,7 @@
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A63" s="3" t="s">
+      <c r="A63" s="22" t="s">
         <v>87</v>
       </c>
       <c r="B63" s="9" t="s">
@@ -3100,9 +3044,7 @@
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A64" s="3" t="s">
-        <v>87</v>
-      </c>
+      <c r="A64" s="23"/>
       <c r="B64" s="9" t="s">
         <v>190</v>
       </c>
@@ -3132,9 +3074,7 @@
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A65" s="3" t="s">
-        <v>87</v>
-      </c>
+      <c r="A65" s="23"/>
       <c r="B65" s="9" t="s">
         <v>190</v>
       </c>
@@ -3164,9 +3104,7 @@
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A66" s="3" t="s">
-        <v>87</v>
-      </c>
+      <c r="A66" s="23"/>
       <c r="B66" s="9" t="s">
         <v>190</v>
       </c>
@@ -3196,9 +3134,7 @@
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A67" s="3" t="s">
-        <v>87</v>
-      </c>
+      <c r="A67" s="23"/>
       <c r="B67" s="9" t="s">
         <v>190</v>
       </c>
@@ -3228,9 +3164,7 @@
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A68" s="3" t="s">
-        <v>87</v>
-      </c>
+      <c r="A68" s="23"/>
       <c r="B68" s="9" t="s">
         <v>190</v>
       </c>
@@ -3260,9 +3194,7 @@
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A69" s="3" t="s">
-        <v>87</v>
-      </c>
+      <c r="A69" s="23"/>
       <c r="B69" s="9" t="s">
         <v>190</v>
       </c>
@@ -3292,9 +3224,7 @@
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A70" s="3" t="s">
-        <v>87</v>
-      </c>
+      <c r="A70" s="23"/>
       <c r="B70" s="9" t="s">
         <v>190</v>
       </c>
@@ -3324,9 +3254,7 @@
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A71" s="3" t="s">
-        <v>87</v>
-      </c>
+      <c r="A71" s="23"/>
       <c r="B71" s="9" t="s">
         <v>190</v>
       </c>
@@ -3356,9 +3284,7 @@
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A72" s="3" t="s">
-        <v>87</v>
-      </c>
+      <c r="A72" s="23"/>
       <c r="B72" s="9" t="s">
         <v>190</v>
       </c>
@@ -3388,9 +3314,7 @@
       </c>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A73" s="3" t="s">
-        <v>87</v>
-      </c>
+      <c r="A73" s="23"/>
       <c r="B73" s="9" t="s">
         <v>190</v>
       </c>
@@ -3420,9 +3344,7 @@
       </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A74" s="3" t="s">
-        <v>87</v>
-      </c>
+      <c r="A74" s="23"/>
       <c r="B74" s="9" t="s">
         <v>190</v>
       </c>
@@ -3452,9 +3374,7 @@
       </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A75" s="3" t="s">
-        <v>87</v>
-      </c>
+      <c r="A75" s="23"/>
       <c r="B75" s="9" t="s">
         <v>190</v>
       </c>
@@ -3484,9 +3404,7 @@
       </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A76" s="3" t="s">
-        <v>87</v>
-      </c>
+      <c r="A76" s="24"/>
       <c r="B76" s="9" t="s">
         <v>190</v>
       </c>
@@ -3516,7 +3434,7 @@
       </c>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A77" s="3" t="s">
+      <c r="A77" s="22" t="s">
         <v>101</v>
       </c>
       <c r="B77" s="9" t="s">
@@ -3548,9 +3466,7 @@
       </c>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A78" s="3" t="s">
-        <v>101</v>
-      </c>
+      <c r="A78" s="23"/>
       <c r="B78" s="9" t="s">
         <v>191</v>
       </c>
@@ -3580,9 +3496,7 @@
       </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A79" s="3" t="s">
-        <v>101</v>
-      </c>
+      <c r="A79" s="23"/>
       <c r="B79" s="9" t="s">
         <v>191</v>
       </c>
@@ -3612,9 +3526,7 @@
       </c>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A80" s="3" t="s">
-        <v>101</v>
-      </c>
+      <c r="A80" s="23"/>
       <c r="B80" s="9" t="s">
         <v>191</v>
       </c>
@@ -3644,9 +3556,7 @@
       </c>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A81" s="3" t="s">
-        <v>101</v>
-      </c>
+      <c r="A81" s="23"/>
       <c r="B81" s="9" t="s">
         <v>191</v>
       </c>
@@ -3676,9 +3586,7 @@
       </c>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A82" s="3" t="s">
-        <v>101</v>
-      </c>
+      <c r="A82" s="23"/>
       <c r="B82" s="9" t="s">
         <v>191</v>
       </c>
@@ -3708,9 +3616,7 @@
       </c>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A83" s="3" t="s">
-        <v>101</v>
-      </c>
+      <c r="A83" s="23"/>
       <c r="B83" s="9" t="s">
         <v>191</v>
       </c>
@@ -3740,9 +3646,7 @@
       </c>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A84" s="3" t="s">
-        <v>101</v>
-      </c>
+      <c r="A84" s="23"/>
       <c r="B84" s="9" t="s">
         <v>191</v>
       </c>
@@ -3772,9 +3676,7 @@
       </c>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A85" s="3" t="s">
-        <v>101</v>
-      </c>
+      <c r="A85" s="23"/>
       <c r="B85" s="9" t="s">
         <v>191</v>
       </c>
@@ -3804,9 +3706,7 @@
       </c>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A86" s="3" t="s">
-        <v>101</v>
-      </c>
+      <c r="A86" s="23"/>
       <c r="B86" s="9" t="s">
         <v>191</v>
       </c>
@@ -3836,9 +3736,7 @@
       </c>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A87" s="3" t="s">
-        <v>101</v>
-      </c>
+      <c r="A87" s="23"/>
       <c r="B87" s="9" t="s">
         <v>191</v>
       </c>
@@ -3868,9 +3766,7 @@
       </c>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A88" s="3" t="s">
-        <v>101</v>
-      </c>
+      <c r="A88" s="23"/>
       <c r="B88" s="9" t="s">
         <v>191</v>
       </c>
@@ -3900,9 +3796,7 @@
       </c>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A89" s="3" t="s">
-        <v>101</v>
-      </c>
+      <c r="A89" s="23"/>
       <c r="B89" s="9" t="s">
         <v>191</v>
       </c>
@@ -3932,9 +3826,7 @@
       </c>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A90" s="3" t="s">
-        <v>101</v>
-      </c>
+      <c r="A90" s="24"/>
       <c r="B90" s="9" t="s">
         <v>191</v>
       </c>
@@ -3964,7 +3856,7 @@
       </c>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A91" s="3" t="s">
+      <c r="A91" s="22" t="s">
         <v>88</v>
       </c>
       <c r="B91" s="9" t="s">
@@ -3996,9 +3888,7 @@
       </c>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A92" s="3" t="s">
-        <v>88</v>
-      </c>
+      <c r="A92" s="23"/>
       <c r="B92" s="9" t="s">
         <v>192</v>
       </c>
@@ -4028,9 +3918,7 @@
       </c>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A93" s="3" t="s">
-        <v>88</v>
-      </c>
+      <c r="A93" s="23"/>
       <c r="B93" s="9" t="s">
         <v>192</v>
       </c>
@@ -4060,9 +3948,7 @@
       </c>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A94" s="3" t="s">
-        <v>88</v>
-      </c>
+      <c r="A94" s="23"/>
       <c r="B94" s="9" t="s">
         <v>192</v>
       </c>
@@ -4092,9 +3978,7 @@
       </c>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A95" s="3" t="s">
-        <v>88</v>
-      </c>
+      <c r="A95" s="23"/>
       <c r="B95" s="9" t="s">
         <v>192</v>
       </c>
@@ -4124,9 +4008,7 @@
       </c>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A96" s="3" t="s">
-        <v>88</v>
-      </c>
+      <c r="A96" s="23"/>
       <c r="B96" s="9" t="s">
         <v>192</v>
       </c>
@@ -4156,9 +4038,7 @@
       </c>
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A97" s="3" t="s">
-        <v>88</v>
-      </c>
+      <c r="A97" s="23"/>
       <c r="B97" s="9" t="s">
         <v>192</v>
       </c>
@@ -4188,9 +4068,7 @@
       </c>
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A98" s="3" t="s">
-        <v>88</v>
-      </c>
+      <c r="A98" s="23"/>
       <c r="B98" s="9" t="s">
         <v>192</v>
       </c>
@@ -4220,9 +4098,7 @@
       </c>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A99" s="3" t="s">
-        <v>88</v>
-      </c>
+      <c r="A99" s="23"/>
       <c r="B99" s="9" t="s">
         <v>192</v>
       </c>
@@ -4252,9 +4128,7 @@
       </c>
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A100" s="3" t="s">
-        <v>88</v>
-      </c>
+      <c r="A100" s="23"/>
       <c r="B100" s="9" t="s">
         <v>192</v>
       </c>
@@ -4284,9 +4158,7 @@
       </c>
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A101" s="3" t="s">
-        <v>88</v>
-      </c>
+      <c r="A101" s="23"/>
       <c r="B101" s="9" t="s">
         <v>192</v>
       </c>
@@ -4316,9 +4188,7 @@
       </c>
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A102" s="3" t="s">
-        <v>88</v>
-      </c>
+      <c r="A102" s="23"/>
       <c r="B102" s="9" t="s">
         <v>192</v>
       </c>
@@ -4348,9 +4218,7 @@
       </c>
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A103" s="3" t="s">
-        <v>88</v>
-      </c>
+      <c r="A103" s="23"/>
       <c r="B103" s="9" t="s">
         <v>192</v>
       </c>
@@ -4380,9 +4248,7 @@
       </c>
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A104" s="3" t="s">
-        <v>88</v>
-      </c>
+      <c r="A104" s="24"/>
       <c r="B104" s="9" t="s">
         <v>192</v>
       </c>
@@ -4412,7 +4278,7 @@
       </c>
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A105" s="3" t="s">
+      <c r="A105" s="22" t="s">
         <v>89</v>
       </c>
       <c r="B105" s="9" t="s">
@@ -4444,9 +4310,7 @@
       </c>
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A106" s="3" t="s">
-        <v>89</v>
-      </c>
+      <c r="A106" s="23"/>
       <c r="B106" s="9" t="s">
         <v>193</v>
       </c>
@@ -4476,9 +4340,7 @@
       </c>
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A107" s="3" t="s">
-        <v>89</v>
-      </c>
+      <c r="A107" s="23"/>
       <c r="B107" s="9" t="s">
         <v>193</v>
       </c>
@@ -4508,9 +4370,7 @@
       </c>
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A108" s="3" t="s">
-        <v>89</v>
-      </c>
+      <c r="A108" s="23"/>
       <c r="B108" s="9" t="s">
         <v>193</v>
       </c>
@@ -4540,9 +4400,7 @@
       </c>
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A109" s="3" t="s">
-        <v>89</v>
-      </c>
+      <c r="A109" s="23"/>
       <c r="B109" s="9" t="s">
         <v>193</v>
       </c>
@@ -4572,9 +4430,7 @@
       </c>
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A110" s="3" t="s">
-        <v>89</v>
-      </c>
+      <c r="A110" s="23"/>
       <c r="B110" s="9" t="s">
         <v>193</v>
       </c>
@@ -4604,9 +4460,7 @@
       </c>
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A111" s="3" t="s">
-        <v>89</v>
-      </c>
+      <c r="A111" s="23"/>
       <c r="B111" s="9" t="s">
         <v>193</v>
       </c>
@@ -4636,9 +4490,7 @@
       </c>
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A112" s="3" t="s">
-        <v>89</v>
-      </c>
+      <c r="A112" s="23"/>
       <c r="B112" s="9" t="s">
         <v>193</v>
       </c>
@@ -4668,9 +4520,7 @@
       </c>
     </row>
     <row r="113" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A113" s="3" t="s">
-        <v>89</v>
-      </c>
+      <c r="A113" s="23"/>
       <c r="B113" s="9" t="s">
         <v>193</v>
       </c>
@@ -4700,9 +4550,7 @@
       </c>
     </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A114" s="3" t="s">
-        <v>89</v>
-      </c>
+      <c r="A114" s="23"/>
       <c r="B114" s="9" t="s">
         <v>193</v>
       </c>
@@ -4732,9 +4580,7 @@
       </c>
     </row>
     <row r="115" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A115" s="3" t="s">
-        <v>89</v>
-      </c>
+      <c r="A115" s="23"/>
       <c r="B115" s="9" t="s">
         <v>193</v>
       </c>
@@ -4764,9 +4610,7 @@
       </c>
     </row>
     <row r="116" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A116" s="3" t="s">
-        <v>89</v>
-      </c>
+      <c r="A116" s="23"/>
       <c r="B116" s="9" t="s">
         <v>193</v>
       </c>
@@ -4796,9 +4640,7 @@
       </c>
     </row>
     <row r="117" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A117" s="3" t="s">
-        <v>89</v>
-      </c>
+      <c r="A117" s="23"/>
       <c r="B117" s="9" t="s">
         <v>193</v>
       </c>
@@ -4828,9 +4670,7 @@
       </c>
     </row>
     <row r="118" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A118" s="3" t="s">
-        <v>89</v>
-      </c>
+      <c r="A118" s="24"/>
       <c r="B118" s="9" t="s">
         <v>193</v>
       </c>
@@ -4860,7 +4700,7 @@
       </c>
     </row>
     <row r="119" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A119" s="3" t="s">
+      <c r="A119" s="22" t="s">
         <v>90</v>
       </c>
       <c r="B119" s="9" t="s">
@@ -4892,9 +4732,7 @@
       </c>
     </row>
     <row r="120" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A120" s="3" t="s">
-        <v>90</v>
-      </c>
+      <c r="A120" s="23"/>
       <c r="B120" s="9" t="s">
         <v>194</v>
       </c>
@@ -4924,9 +4762,7 @@
       </c>
     </row>
     <row r="121" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A121" s="3" t="s">
-        <v>90</v>
-      </c>
+      <c r="A121" s="23"/>
       <c r="B121" s="9" t="s">
         <v>194</v>
       </c>
@@ -4956,9 +4792,7 @@
       </c>
     </row>
     <row r="122" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A122" s="3" t="s">
-        <v>90</v>
-      </c>
+      <c r="A122" s="23"/>
       <c r="B122" s="9" t="s">
         <v>194</v>
       </c>
@@ -4988,9 +4822,7 @@
       </c>
     </row>
     <row r="123" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A123" s="3" t="s">
-        <v>90</v>
-      </c>
+      <c r="A123" s="23"/>
       <c r="B123" s="9" t="s">
         <v>194</v>
       </c>
@@ -5020,9 +4852,7 @@
       </c>
     </row>
     <row r="124" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A124" s="3" t="s">
-        <v>90</v>
-      </c>
+      <c r="A124" s="23"/>
       <c r="B124" s="9" t="s">
         <v>194</v>
       </c>
@@ -5052,9 +4882,7 @@
       </c>
     </row>
     <row r="125" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A125" s="3" t="s">
-        <v>90</v>
-      </c>
+      <c r="A125" s="23"/>
       <c r="B125" s="9" t="s">
         <v>194</v>
       </c>
@@ -5084,9 +4912,7 @@
       </c>
     </row>
     <row r="126" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A126" s="3" t="s">
-        <v>90</v>
-      </c>
+      <c r="A126" s="23"/>
       <c r="B126" s="9" t="s">
         <v>194</v>
       </c>
@@ -5116,9 +4942,7 @@
       </c>
     </row>
     <row r="127" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A127" s="3" t="s">
-        <v>90</v>
-      </c>
+      <c r="A127" s="23"/>
       <c r="B127" s="9" t="s">
         <v>194</v>
       </c>
@@ -5148,9 +4972,7 @@
       </c>
     </row>
     <row r="128" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A128" s="3" t="s">
-        <v>90</v>
-      </c>
+      <c r="A128" s="23"/>
       <c r="B128" s="9" t="s">
         <v>194</v>
       </c>
@@ -5180,9 +5002,7 @@
       </c>
     </row>
     <row r="129" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A129" s="3" t="s">
-        <v>90</v>
-      </c>
+      <c r="A129" s="23"/>
       <c r="B129" s="9" t="s">
         <v>194</v>
       </c>
@@ -5212,9 +5032,7 @@
       </c>
     </row>
     <row r="130" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A130" s="3" t="s">
-        <v>90</v>
-      </c>
+      <c r="A130" s="23"/>
       <c r="B130" s="9" t="s">
         <v>194</v>
       </c>
@@ -5244,9 +5062,7 @@
       </c>
     </row>
     <row r="131" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A131" s="3" t="s">
-        <v>90</v>
-      </c>
+      <c r="A131" s="23"/>
       <c r="B131" s="9" t="s">
         <v>194</v>
       </c>
@@ -5276,9 +5092,7 @@
       </c>
     </row>
     <row r="132" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A132" s="3" t="s">
-        <v>90</v>
-      </c>
+      <c r="A132" s="24"/>
       <c r="B132" s="9" t="s">
         <v>194</v>
       </c>
@@ -5372,7 +5186,7 @@
       </c>
     </row>
     <row r="135" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A135" s="3" t="s">
+      <c r="A135" s="22" t="s">
         <v>93</v>
       </c>
       <c r="B135" s="9" t="s">
@@ -5404,9 +5218,7 @@
       </c>
     </row>
     <row r="136" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A136" s="3" t="s">
-        <v>93</v>
-      </c>
+      <c r="A136" s="23"/>
       <c r="B136" s="9" t="s">
         <v>197</v>
       </c>
@@ -5436,9 +5248,7 @@
       </c>
     </row>
     <row r="137" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A137" s="3" t="s">
-        <v>93</v>
-      </c>
+      <c r="A137" s="23"/>
       <c r="B137" s="9" t="s">
         <v>197</v>
       </c>
@@ -5468,9 +5278,7 @@
       </c>
     </row>
     <row r="138" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A138" s="3" t="s">
-        <v>93</v>
-      </c>
+      <c r="A138" s="24"/>
       <c r="B138" s="9" t="s">
         <v>197</v>
       </c>
@@ -5500,7 +5308,7 @@
       </c>
     </row>
     <row r="139" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A139" s="3" t="s">
+      <c r="A139" s="22" t="s">
         <v>94</v>
       </c>
       <c r="B139" s="9" t="s">
@@ -5532,9 +5340,7 @@
       </c>
     </row>
     <row r="140" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A140" s="3" t="s">
-        <v>94</v>
-      </c>
+      <c r="A140" s="23"/>
       <c r="B140" s="9" t="s">
         <v>197</v>
       </c>
@@ -5564,9 +5370,7 @@
       </c>
     </row>
     <row r="141" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A141" s="3" t="s">
-        <v>94</v>
-      </c>
+      <c r="A141" s="23"/>
       <c r="B141" s="9" t="s">
         <v>197</v>
       </c>
@@ -5596,9 +5400,7 @@
       </c>
     </row>
     <row r="142" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A142" s="3" t="s">
-        <v>94</v>
-      </c>
+      <c r="A142" s="24"/>
       <c r="B142" s="9" t="s">
         <v>197</v>
       </c>
@@ -5628,7 +5430,7 @@
       </c>
     </row>
     <row r="143" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A143" s="3" t="s">
+      <c r="A143" s="22" t="s">
         <v>26</v>
       </c>
       <c r="B143" s="9" t="s">
@@ -5660,9 +5462,7 @@
       </c>
     </row>
     <row r="144" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A144" s="3" t="s">
-        <v>26</v>
-      </c>
+      <c r="A144" s="23"/>
       <c r="B144" s="9" t="s">
         <v>197</v>
       </c>
@@ -5692,9 +5492,7 @@
       </c>
     </row>
     <row r="145" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A145" s="3" t="s">
-        <v>26</v>
-      </c>
+      <c r="A145" s="23"/>
       <c r="B145" s="9" t="s">
         <v>197</v>
       </c>
@@ -5724,9 +5522,7 @@
       </c>
     </row>
     <row r="146" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A146" s="3" t="s">
-        <v>26</v>
-      </c>
+      <c r="A146" s="24"/>
       <c r="B146" s="9" t="s">
         <v>197</v>
       </c>
@@ -5756,7 +5552,7 @@
       </c>
     </row>
     <row r="147" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A147" s="3" t="s">
+      <c r="A147" s="22" t="s">
         <v>35</v>
       </c>
       <c r="B147" s="9" t="s">
@@ -5788,9 +5584,7 @@
       </c>
     </row>
     <row r="148" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A148" s="3" t="s">
-        <v>35</v>
-      </c>
+      <c r="A148" s="23"/>
       <c r="B148" s="9" t="s">
         <v>198</v>
       </c>
@@ -5820,9 +5614,7 @@
       </c>
     </row>
     <row r="149" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A149" s="3" t="s">
-        <v>35</v>
-      </c>
+      <c r="A149" s="23"/>
       <c r="B149" s="9" t="s">
         <v>198</v>
       </c>
@@ -5852,9 +5644,7 @@
       </c>
     </row>
     <row r="150" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A150" s="3" t="s">
-        <v>35</v>
-      </c>
+      <c r="A150" s="23"/>
       <c r="B150" s="9" t="s">
         <v>198</v>
       </c>
@@ -5884,9 +5674,7 @@
       </c>
     </row>
     <row r="151" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A151" s="3" t="s">
-        <v>35</v>
-      </c>
+      <c r="A151" s="23"/>
       <c r="B151" s="9" t="s">
         <v>198</v>
       </c>
@@ -5916,9 +5704,7 @@
       </c>
     </row>
     <row r="152" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A152" s="3" t="s">
-        <v>35</v>
-      </c>
+      <c r="A152" s="23"/>
       <c r="B152" s="9" t="s">
         <v>198</v>
       </c>
@@ -5948,9 +5734,7 @@
       </c>
     </row>
     <row r="153" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A153" s="3" t="s">
-        <v>35</v>
-      </c>
+      <c r="A153" s="23"/>
       <c r="B153" s="9" t="s">
         <v>198</v>
       </c>
@@ -5980,9 +5764,7 @@
       </c>
     </row>
     <row r="154" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A154" s="3" t="s">
-        <v>35</v>
-      </c>
+      <c r="A154" s="23"/>
       <c r="B154" s="9" t="s">
         <v>198</v>
       </c>
@@ -6012,9 +5794,7 @@
       </c>
     </row>
     <row r="155" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A155" s="3" t="s">
-        <v>35</v>
-      </c>
+      <c r="A155" s="24"/>
       <c r="B155" s="9" t="s">
         <v>198</v>
       </c>
@@ -6044,7 +5824,7 @@
       </c>
     </row>
     <row r="156" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A156" s="3" t="s">
+      <c r="A156" s="22" t="s">
         <v>41</v>
       </c>
       <c r="B156" s="9" t="s">
@@ -6076,9 +5856,7 @@
       </c>
     </row>
     <row r="157" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A157" s="3" t="s">
-        <v>41</v>
-      </c>
+      <c r="A157" s="23"/>
       <c r="B157" s="9" t="s">
         <v>199</v>
       </c>
@@ -6108,9 +5886,7 @@
       </c>
     </row>
     <row r="158" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A158" s="3" t="s">
-        <v>41</v>
-      </c>
+      <c r="A158" s="24"/>
       <c r="B158" s="9" t="s">
         <v>199</v>
       </c>
@@ -6140,7 +5916,7 @@
       </c>
     </row>
     <row r="159" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A159" s="3" t="s">
+      <c r="A159" s="22" t="s">
         <v>76</v>
       </c>
       <c r="B159" s="9" t="s">
@@ -6172,9 +5948,7 @@
       </c>
     </row>
     <row r="160" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A160" s="3" t="s">
-        <v>76</v>
-      </c>
+      <c r="A160" s="24"/>
       <c r="B160" s="9" t="s">
         <v>200</v>
       </c>
@@ -6204,7 +5978,7 @@
       </c>
     </row>
     <row r="161" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A161" s="3" t="s">
+      <c r="A161" s="22" t="s">
         <v>74</v>
       </c>
       <c r="B161" s="9" t="s">
@@ -6236,9 +6010,7 @@
       </c>
     </row>
     <row r="162" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A162" s="3" t="s">
-        <v>74</v>
-      </c>
+      <c r="A162" s="24"/>
       <c r="B162" s="9" t="s">
         <v>201</v>
       </c>
@@ -6364,7 +6136,7 @@
       </c>
     </row>
     <row r="166" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A166" s="3" t="s">
+      <c r="A166" s="22" t="s">
         <v>47</v>
       </c>
       <c r="B166" s="10" t="s">
@@ -6396,9 +6168,7 @@
       </c>
     </row>
     <row r="167" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A167" s="3" t="s">
-        <v>47</v>
-      </c>
+      <c r="A167" s="24"/>
       <c r="B167" s="10" t="s">
         <v>205</v>
       </c>
@@ -6428,7 +6198,7 @@
       </c>
     </row>
     <row r="168" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A168" s="3" t="s">
+      <c r="A168" s="22" t="s">
         <v>69</v>
       </c>
       <c r="B168" s="9" t="s">
@@ -6460,9 +6230,7 @@
       </c>
     </row>
     <row r="169" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A169" s="3" t="s">
-        <v>69</v>
-      </c>
+      <c r="A169" s="23"/>
       <c r="B169" s="9" t="s">
         <v>206</v>
       </c>
@@ -6492,9 +6260,7 @@
       </c>
     </row>
     <row r="170" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A170" s="3" t="s">
-        <v>69</v>
-      </c>
+      <c r="A170" s="24"/>
       <c r="B170" s="9" t="s">
         <v>206</v>
       </c>
@@ -6524,7 +6290,7 @@
       </c>
     </row>
     <row r="171" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A171" s="3" t="s">
+      <c r="A171" s="22" t="s">
         <v>96</v>
       </c>
       <c r="B171" s="9" t="s">
@@ -6556,9 +6322,7 @@
       </c>
     </row>
     <row r="172" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A172" s="3" t="s">
-        <v>96</v>
-      </c>
+      <c r="A172" s="23"/>
       <c r="B172" s="9" t="s">
         <v>207</v>
       </c>
@@ -6588,9 +6352,7 @@
       </c>
     </row>
     <row r="173" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A173" s="3" t="s">
-        <v>96</v>
-      </c>
+      <c r="A173" s="24"/>
       <c r="B173" s="9" t="s">
         <v>207</v>
       </c>
@@ -6620,7 +6382,7 @@
       </c>
     </row>
     <row r="174" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A174" s="3" t="s">
+      <c r="A174" s="22" t="s">
         <v>97</v>
       </c>
       <c r="B174" s="9" t="s">
@@ -6652,9 +6414,7 @@
       </c>
     </row>
     <row r="175" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A175" s="3" t="s">
-        <v>97</v>
-      </c>
+      <c r="A175" s="23"/>
       <c r="B175" s="9" t="s">
         <v>207</v>
       </c>
@@ -6684,9 +6444,7 @@
       </c>
     </row>
     <row r="176" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A176" s="3" t="s">
-        <v>97</v>
-      </c>
+      <c r="A176" s="24"/>
       <c r="B176" s="9" t="s">
         <v>207</v>
       </c>
@@ -6716,7 +6474,7 @@
       </c>
     </row>
     <row r="177" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A177" s="3" t="s">
+      <c r="A177" s="22" t="s">
         <v>98</v>
       </c>
       <c r="B177" s="9" t="s">
@@ -6748,9 +6506,7 @@
       </c>
     </row>
     <row r="178" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A178" s="3" t="s">
-        <v>98</v>
-      </c>
+      <c r="A178" s="23"/>
       <c r="B178" s="9" t="s">
         <v>208</v>
       </c>
@@ -6780,9 +6536,7 @@
       </c>
     </row>
     <row r="179" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A179" s="3" t="s">
-        <v>98</v>
-      </c>
+      <c r="A179" s="23"/>
       <c r="B179" s="9" t="s">
         <v>208</v>
       </c>
@@ -6812,9 +6566,7 @@
       </c>
     </row>
     <row r="180" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A180" s="3" t="s">
-        <v>98</v>
-      </c>
+      <c r="A180" s="23"/>
       <c r="B180" s="9" t="s">
         <v>208</v>
       </c>
@@ -6844,9 +6596,7 @@
       </c>
     </row>
     <row r="181" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A181" s="3" t="s">
-        <v>98</v>
-      </c>
+      <c r="A181" s="23"/>
       <c r="B181" s="9" t="s">
         <v>208</v>
       </c>
@@ -6876,9 +6626,7 @@
       </c>
     </row>
     <row r="182" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A182" s="3" t="s">
-        <v>98</v>
-      </c>
+      <c r="A182" s="23"/>
       <c r="B182" s="9" t="s">
         <v>208</v>
       </c>
@@ -6908,9 +6656,7 @@
       </c>
     </row>
     <row r="183" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A183" s="3" t="s">
-        <v>98</v>
-      </c>
+      <c r="A183" s="23"/>
       <c r="B183" s="9" t="s">
         <v>208</v>
       </c>
@@ -6940,9 +6686,7 @@
       </c>
     </row>
     <row r="184" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A184" s="3" t="s">
-        <v>98</v>
-      </c>
+      <c r="A184" s="24"/>
       <c r="B184" s="9" t="s">
         <v>208</v>
       </c>
@@ -6972,7 +6716,7 @@
       </c>
     </row>
     <row r="185" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A185" s="3" t="s">
+      <c r="A185" s="22" t="s">
         <v>99</v>
       </c>
       <c r="B185" s="9" t="s">
@@ -7004,9 +6748,7 @@
       </c>
     </row>
     <row r="186" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A186" s="3" t="s">
-        <v>99</v>
-      </c>
+      <c r="A186" s="23"/>
       <c r="B186" s="9" t="s">
         <v>208</v>
       </c>
@@ -7036,9 +6778,7 @@
       </c>
     </row>
     <row r="187" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A187" s="3" t="s">
-        <v>99</v>
-      </c>
+      <c r="A187" s="23"/>
       <c r="B187" s="9" t="s">
         <v>208</v>
       </c>
@@ -7068,9 +6808,7 @@
       </c>
     </row>
     <row r="188" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A188" s="3" t="s">
-        <v>99</v>
-      </c>
+      <c r="A188" s="23"/>
       <c r="B188" s="9" t="s">
         <v>208</v>
       </c>
@@ -7100,9 +6838,7 @@
       </c>
     </row>
     <row r="189" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A189" s="3" t="s">
-        <v>99</v>
-      </c>
+      <c r="A189" s="23"/>
       <c r="B189" s="9" t="s">
         <v>208</v>
       </c>
@@ -7132,9 +6868,7 @@
       </c>
     </row>
     <row r="190" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A190" s="3" t="s">
-        <v>99</v>
-      </c>
+      <c r="A190" s="23"/>
       <c r="B190" s="9" t="s">
         <v>208</v>
       </c>
@@ -7164,9 +6898,7 @@
       </c>
     </row>
     <row r="191" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A191" s="3" t="s">
-        <v>99</v>
-      </c>
+      <c r="A191" s="23"/>
       <c r="B191" s="9" t="s">
         <v>208</v>
       </c>
@@ -7196,9 +6928,7 @@
       </c>
     </row>
     <row r="192" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A192" s="3" t="s">
-        <v>99</v>
-      </c>
+      <c r="A192" s="24"/>
       <c r="B192" s="9" t="s">
         <v>208</v>
       </c>
@@ -7228,7 +6958,7 @@
       </c>
     </row>
     <row r="193" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A193" s="3" t="s">
+      <c r="A193" s="22" t="s">
         <v>100</v>
       </c>
       <c r="B193" s="9" t="s">
@@ -7260,9 +6990,7 @@
       </c>
     </row>
     <row r="194" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A194" s="3" t="s">
-        <v>100</v>
-      </c>
+      <c r="A194" s="23"/>
       <c r="B194" s="9" t="s">
         <v>208</v>
       </c>
@@ -7292,9 +7020,7 @@
       </c>
     </row>
     <row r="195" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A195" s="3" t="s">
-        <v>100</v>
-      </c>
+      <c r="A195" s="23"/>
       <c r="B195" s="9" t="s">
         <v>208</v>
       </c>
@@ -7324,9 +7050,7 @@
       </c>
     </row>
     <row r="196" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A196" s="3" t="s">
-        <v>100</v>
-      </c>
+      <c r="A196" s="23"/>
       <c r="B196" s="9" t="s">
         <v>208</v>
       </c>
@@ -7356,9 +7080,7 @@
       </c>
     </row>
     <row r="197" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A197" s="3" t="s">
-        <v>100</v>
-      </c>
+      <c r="A197" s="23"/>
       <c r="B197" s="9" t="s">
         <v>208</v>
       </c>
@@ -7388,9 +7110,7 @@
       </c>
     </row>
     <row r="198" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A198" s="3" t="s">
-        <v>100</v>
-      </c>
+      <c r="A198" s="23"/>
       <c r="B198" s="9" t="s">
         <v>208</v>
       </c>
@@ -7420,9 +7140,7 @@
       </c>
     </row>
     <row r="199" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A199" s="3" t="s">
-        <v>100</v>
-      </c>
+      <c r="A199" s="23"/>
       <c r="B199" s="9" t="s">
         <v>208</v>
       </c>
@@ -7452,9 +7170,7 @@
       </c>
     </row>
     <row r="200" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A200" s="3" t="s">
-        <v>100</v>
-      </c>
+      <c r="A200" s="24"/>
       <c r="B200" s="3" t="s">
         <v>208</v>
       </c>
@@ -7561,6 +7277,32 @@
       <c r="I207"/>
     </row>
   </sheetData>
+  <mergeCells count="24">
+    <mergeCell ref="A139:A142"/>
+    <mergeCell ref="A7:A20"/>
+    <mergeCell ref="A21:A29"/>
+    <mergeCell ref="A30:A38"/>
+    <mergeCell ref="A39:A50"/>
+    <mergeCell ref="A51:A62"/>
+    <mergeCell ref="A63:A76"/>
+    <mergeCell ref="A77:A90"/>
+    <mergeCell ref="A91:A104"/>
+    <mergeCell ref="A105:A118"/>
+    <mergeCell ref="A119:A132"/>
+    <mergeCell ref="A135:A138"/>
+    <mergeCell ref="A193:A200"/>
+    <mergeCell ref="A143:A146"/>
+    <mergeCell ref="A147:A155"/>
+    <mergeCell ref="A156:A158"/>
+    <mergeCell ref="A159:A160"/>
+    <mergeCell ref="A161:A162"/>
+    <mergeCell ref="A166:A167"/>
+    <mergeCell ref="A168:A170"/>
+    <mergeCell ref="A171:A173"/>
+    <mergeCell ref="A174:A176"/>
+    <mergeCell ref="A177:A184"/>
+    <mergeCell ref="A185:A192"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
